--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.38829566666667</v>
+        <v>0.05741433333333334</v>
       </c>
       <c r="H2">
-        <v>34.16488700000001</v>
+        <v>0.172243</v>
       </c>
       <c r="I2">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="J2">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N2">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O2">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P2">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q2">
-        <v>2889.152473383956</v>
+        <v>0.005695712385888888</v>
       </c>
       <c r="R2">
-        <v>26002.3722604556</v>
+        <v>0.05126141147299999</v>
       </c>
       <c r="S2">
-        <v>0.9652268631250308</v>
+        <v>0.1090166613559617</v>
       </c>
       <c r="T2">
-        <v>0.9652268631250309</v>
+        <v>0.1090166613559617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.38829566666667</v>
+        <v>0.05741433333333334</v>
       </c>
       <c r="H3">
-        <v>34.16488700000001</v>
+        <v>0.172243</v>
       </c>
       <c r="I3">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="J3">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O3">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P3">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q3">
-        <v>0.3135539445903334</v>
+        <v>0.001580788839666667</v>
       </c>
       <c r="R3">
-        <v>2.821985501313001</v>
+        <v>0.014227099557</v>
       </c>
       <c r="S3">
-        <v>0.0001047541426579414</v>
+        <v>0.0302564999658651</v>
       </c>
       <c r="T3">
-        <v>0.0001047541426579415</v>
+        <v>0.03025649996586511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.38829566666667</v>
+        <v>0.05741433333333334</v>
       </c>
       <c r="H4">
-        <v>34.16488700000001</v>
+        <v>0.172243</v>
       </c>
       <c r="I4">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="J4">
-        <v>0.9654573123467209</v>
+        <v>0.1699029269866134</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N4">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O4">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P4">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q4">
-        <v>0.3762351239396668</v>
+        <v>0.001600290574888889</v>
       </c>
       <c r="R4">
-        <v>3.386116115457001</v>
+        <v>0.014402615174</v>
       </c>
       <c r="S4">
-        <v>0.0001256950790320856</v>
+        <v>0.0306297656647866</v>
       </c>
       <c r="T4">
-        <v>0.0001256950790320856</v>
+        <v>0.0306297656647866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.349175</v>
       </c>
       <c r="I5">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741604</v>
       </c>
       <c r="J5">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N5">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O5">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P5">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q5">
-        <v>29.527971653875</v>
+        <v>0.01154648010277778</v>
       </c>
       <c r="R5">
-        <v>265.751744884875</v>
+        <v>0.103918320925</v>
       </c>
       <c r="S5">
-        <v>0.009864896960779718</v>
+        <v>0.2210011015191788</v>
       </c>
       <c r="T5">
-        <v>0.009864896960779719</v>
+        <v>0.2210011015191789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.349175</v>
       </c>
       <c r="I6">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741604</v>
       </c>
       <c r="J6">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741605</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O6">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P6">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q6">
-        <v>0.003204611758333333</v>
+        <v>0.003204611758333334</v>
       </c>
       <c r="R6">
         <v>0.028841505825</v>
       </c>
       <c r="S6">
-        <v>1.070617554291536E-06</v>
+        <v>0.06133667769129048</v>
       </c>
       <c r="T6">
-        <v>1.070617554291536E-06</v>
+        <v>0.0613366776912905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>0.349175</v>
       </c>
       <c r="I7">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741604</v>
       </c>
       <c r="J7">
-        <v>0.009867252218298457</v>
+        <v>0.3444311497741605</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N7">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O7">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P7">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q7">
-        <v>0.003845231491666667</v>
+        <v>0.003244146127777778</v>
       </c>
       <c r="R7">
-        <v>0.034607083425</v>
+        <v>0.02919731515</v>
       </c>
       <c r="S7">
-        <v>1.284639964447371E-06</v>
+        <v>0.06209337056369118</v>
       </c>
       <c r="T7">
-        <v>1.284639964447371E-06</v>
+        <v>0.06209337056369119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2910653333333333</v>
+        <v>0.1641183333333333</v>
       </c>
       <c r="H8">
-        <v>0.8731960000000001</v>
+        <v>0.492355</v>
       </c>
       <c r="I8">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="J8">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N8">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O8">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P8">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q8">
-        <v>73.84178917814</v>
+        <v>0.01628114043388889</v>
       </c>
       <c r="R8">
-        <v>664.5761026032601</v>
+        <v>0.146530263905</v>
       </c>
       <c r="S8">
-        <v>0.02466954554754781</v>
+        <v>0.3116231039979245</v>
       </c>
       <c r="T8">
-        <v>0.02466954554754782</v>
+        <v>0.3116231039979245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2910653333333333</v>
+        <v>0.1641183333333333</v>
       </c>
       <c r="H9">
-        <v>0.8731960000000001</v>
+        <v>0.492355</v>
       </c>
       <c r="I9">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="J9">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P9">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q9">
-        <v>0.008013901822666668</v>
+        <v>0.004518670071666667</v>
       </c>
       <c r="R9">
-        <v>0.07212511640400002</v>
+        <v>0.04066803064500001</v>
       </c>
       <c r="S9">
-        <v>2.677336481526891E-06</v>
+        <v>0.08648792137093242</v>
       </c>
       <c r="T9">
-        <v>2.677336481526892E-06</v>
+        <v>0.08648792137093245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2910653333333333</v>
+        <v>0.1641183333333333</v>
       </c>
       <c r="H10">
-        <v>0.8731960000000001</v>
+        <v>0.492355</v>
       </c>
       <c r="I10">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="J10">
-        <v>0.02467543543498057</v>
+        <v>0.4856659232392261</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N10">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O10">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P10">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q10">
-        <v>0.009615925417333335</v>
+        <v>0.004574415598888889</v>
       </c>
       <c r="R10">
-        <v>0.08654332875600002</v>
+        <v>0.04116974039</v>
       </c>
       <c r="S10">
-        <v>3.212550951229576E-06</v>
+        <v>0.08755489787036921</v>
       </c>
       <c r="T10">
-        <v>3.212550951229576E-06</v>
+        <v>0.08755489787036923</v>
       </c>
     </row>
   </sheetData>
